--- a/artfynd/A 47526-2022.xlsx
+++ b/artfynd/A 47526-2022.xlsx
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>698803.7408880877</v>
+        <v>698804</v>
       </c>
       <c r="R25" t="n">
-        <v>6364986.432398214</v>
+        <v>6364986</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3720,19 +3720,9 @@
           <t>2023-06-24</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-06-24</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 47526-2022.xlsx
+++ b/artfynd/A 47526-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68570274</v>
+        <v>109532664</v>
       </c>
       <c r="B2" t="n">
-        <v>42760</v>
+        <v>96361</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,58 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101242</v>
+        <v>219864</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>698813.9011549525</v>
+        <v>699133.3627236265</v>
       </c>
       <c r="R2" t="n">
-        <v>6364977.748399592</v>
+        <v>6365005.190648267</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -767,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -777,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -797,26 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72117437</v>
+        <v>109532679</v>
       </c>
       <c r="B3" t="n">
-        <v>42760</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,58 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101242</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hejde, transekt 1, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>698876.0359369776</v>
+        <v>699135.4689690105</v>
       </c>
       <c r="R3" t="n">
-        <v>6364857.130456802</v>
+        <v>6365006.373185245</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -900,7 +864,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -910,7 +874,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -924,33 +888,28 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79993003</v>
+        <v>109532804</v>
       </c>
       <c r="B4" t="n">
-        <v>42760</v>
+        <v>106964</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -963,54 +922,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101242</v>
+        <v>220299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4. Forse Skogsbilväg, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>698850.760269118</v>
+        <v>699143.7701557426</v>
       </c>
       <c r="R4" t="n">
-        <v>6365131.796981678</v>
+        <v>6365080.206298253</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1034,7 +977,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1044,7 +987,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1058,30 +1001,25 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79992994</v>
+        <v>68570274</v>
       </c>
       <c r="B5" t="n">
         <v>42760</v>
@@ -1116,7 +1054,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1134,14 +1072,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4. Forse Skogsbilväg, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>698868.8699557008</v>
+        <v>698813.9011549525</v>
       </c>
       <c r="R5" t="n">
-        <v>6365193.146991285</v>
+        <v>6364977.748399592</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,7 +1106,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1178,7 +1116,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1192,7 +1130,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1215,7 +1152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88792599</v>
+        <v>72117437</v>
       </c>
       <c r="B6" t="n">
         <v>42760</v>
@@ -1250,10 +1187,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1264,17 +1205,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>Hejde, transekt 1, Gtl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>698833.1261965743</v>
+        <v>698876.0359369776</v>
       </c>
       <c r="R6" t="n">
-        <v>6365082.887177548</v>
+        <v>6364857.130456802</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1298,7 +1239,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2018-06-28</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1308,7 +1249,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2018-06-28</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1345,7 +1286,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88787904</v>
+        <v>79993003</v>
       </c>
       <c r="B7" t="n">
         <v>42760</v>
@@ -1380,10 +1321,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1394,17 +1339,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>4. Forse Skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698807.8333967249</v>
+        <v>698850.760269118</v>
       </c>
       <c r="R7" t="n">
-        <v>6364980.152611679</v>
+        <v>6365131.796981678</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1428,7 +1373,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1438,7 +1383,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1475,7 +1420,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88792597</v>
+        <v>79992994</v>
       </c>
       <c r="B8" t="n">
         <v>42760</v>
@@ -1510,10 +1455,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1524,17 +1473,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>4. Forse Skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698866.2050119784</v>
+        <v>698868.8699557008</v>
       </c>
       <c r="R8" t="n">
-        <v>6365159.003978945</v>
+        <v>6365193.146991285</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1558,7 +1507,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1568,7 +1517,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1605,7 +1554,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88792602</v>
+        <v>88792599</v>
       </c>
       <c r="B9" t="n">
         <v>42760</v>
@@ -1640,7 +1589,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1658,13 +1607,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698814.2091739047</v>
+        <v>698833.1261965743</v>
       </c>
       <c r="R9" t="n">
-        <v>6365004.759195536</v>
+        <v>6365082.887177548</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1735,7 +1684,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88787859</v>
+        <v>88787904</v>
       </c>
       <c r="B10" t="n">
         <v>42760</v>
@@ -1770,7 +1719,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1788,10 +1737,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>698857.0043573412</v>
+        <v>698807.8333967249</v>
       </c>
       <c r="R10" t="n">
-        <v>6365159.09584777</v>
+        <v>6364980.152611679</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1865,7 +1814,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88792604</v>
+        <v>88792597</v>
       </c>
       <c r="B11" t="n">
         <v>42760</v>
@@ -1900,7 +1849,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1918,10 +1867,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>698804.9513779663</v>
+        <v>698866.2050119784</v>
       </c>
       <c r="R11" t="n">
-        <v>6364983.791739124</v>
+        <v>6365159.003978945</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1995,7 +1944,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88787882</v>
+        <v>88792602</v>
       </c>
       <c r="B12" t="n">
         <v>42760</v>
@@ -2030,7 +1979,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2048,13 +1997,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>698827.1068079674</v>
+        <v>698814.2091739047</v>
       </c>
       <c r="R12" t="n">
-        <v>6365062.077703878</v>
+        <v>6365004.759195536</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2125,7 +2074,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95564901</v>
+        <v>88787859</v>
       </c>
       <c r="B13" t="n">
         <v>42760</v>
@@ -2160,7 +2109,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2178,10 +2127,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>698851.2847993015</v>
+        <v>698857.0043573412</v>
       </c>
       <c r="R13" t="n">
-        <v>6365121.024543757</v>
+        <v>6365159.09584777</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2208,7 +2157,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2218,7 +2167,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2255,7 +2204,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95564917</v>
+        <v>88792604</v>
       </c>
       <c r="B14" t="n">
         <v>42760</v>
@@ -2290,7 +2239,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2308,13 +2257,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>698818.3736643163</v>
+        <v>698804.9513779663</v>
       </c>
       <c r="R14" t="n">
-        <v>6365030.337822604</v>
+        <v>6364983.791739124</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2338,7 +2287,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2348,7 +2297,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2385,7 +2334,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95564923</v>
+        <v>88787882</v>
       </c>
       <c r="B15" t="n">
         <v>42760</v>
@@ -2420,7 +2369,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2438,10 +2387,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>698806.4918026885</v>
+        <v>698827.1068079674</v>
       </c>
       <c r="R15" t="n">
-        <v>6364985.486474841</v>
+        <v>6365062.077703878</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2468,7 +2417,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2478,7 +2427,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2515,7 +2464,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103831818</v>
+        <v>95564901</v>
       </c>
       <c r="B16" t="n">
         <v>42760</v>
@@ -2568,13 +2517,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>698859.0278939214</v>
+        <v>698851.2847993015</v>
       </c>
       <c r="R16" t="n">
-        <v>6365139.758125425</v>
+        <v>6365121.024543757</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2598,7 +2547,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2608,7 +2557,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2645,7 +2594,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103831888</v>
+        <v>95564917</v>
       </c>
       <c r="B17" t="n">
         <v>42760</v>
@@ -2680,7 +2629,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2698,13 +2647,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>698839.7224652478</v>
+        <v>698818.3736643163</v>
       </c>
       <c r="R17" t="n">
-        <v>6365091.846795091</v>
+        <v>6365030.337822604</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2728,7 +2677,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2738,7 +2687,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2775,7 +2724,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103831911</v>
+        <v>95564923</v>
       </c>
       <c r="B18" t="n">
         <v>42760</v>
@@ -2810,7 +2759,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2828,13 +2777,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>698817.1851109561</v>
+        <v>698806.4918026885</v>
       </c>
       <c r="R18" t="n">
-        <v>6365010.303207053</v>
+        <v>6364985.486474841</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2858,7 +2807,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2868,7 +2817,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2905,7 +2854,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103831813</v>
+        <v>103831818</v>
       </c>
       <c r="B19" t="n">
         <v>42760</v>
@@ -2940,7 +2889,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2958,10 +2907,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>698862.641120194</v>
+        <v>698859.0278939214</v>
       </c>
       <c r="R19" t="n">
-        <v>6365176.646924374</v>
+        <v>6365139.758125425</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3035,7 +2984,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>103831777</v>
+        <v>103831888</v>
       </c>
       <c r="B20" t="n">
         <v>42760</v>
@@ -3070,7 +3019,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -3088,10 +3037,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>698874.2292442647</v>
+        <v>698839.7224652478</v>
       </c>
       <c r="R20" t="n">
-        <v>6365205.285552061</v>
+        <v>6365091.846795091</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3165,7 +3114,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103831824</v>
+        <v>103831911</v>
       </c>
       <c r="B21" t="n">
         <v>42760</v>
@@ -3200,7 +3149,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -3218,10 +3167,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>698850.0218603283</v>
+        <v>698817.1851109561</v>
       </c>
       <c r="R21" t="n">
-        <v>6365124.74234467</v>
+        <v>6365010.303207053</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3295,10 +3244,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109532664</v>
+        <v>103831813</v>
       </c>
       <c r="B22" t="n">
-        <v>96361</v>
+        <v>42760</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3307,42 +3256,54 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219864</v>
+        <v>101242</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>699133.3627236265</v>
+        <v>698862.641120194</v>
       </c>
       <c r="R22" t="n">
-        <v>6365005.190648267</v>
+        <v>6365176.646924374</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3366,7 +3327,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3376,7 +3337,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3390,28 +3351,33 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109532679</v>
+        <v>103831777</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>42760</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3420,42 +3386,54 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>101242</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>699135.4689690105</v>
+        <v>698874.2292442647</v>
       </c>
       <c r="R23" t="n">
-        <v>6365006.373185245</v>
+        <v>6365205.285552061</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3479,7 +3457,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3489,7 +3467,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3503,28 +3481,33 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109532804</v>
+        <v>103831824</v>
       </c>
       <c r="B24" t="n">
-        <v>106964</v>
+        <v>42760</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3537,38 +3520,50 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220299</v>
+        <v>101242</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>699143.7701557426</v>
+        <v>698850.0218603283</v>
       </c>
       <c r="R24" t="n">
-        <v>6365080.206298253</v>
+        <v>6365124.74234467</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3592,7 +3587,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3602,7 +3597,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3616,21 +3611,26 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">

--- a/artfynd/A 47526-2022.xlsx
+++ b/artfynd/A 47526-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109532664</v>
+        <v>68570274</v>
       </c>
       <c r="B2" t="n">
-        <v>96361</v>
+        <v>42760</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,58 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219864</v>
+        <v>101242</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sankt pers nycklar</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Orchis mascula</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>699133.3627236265</v>
+        <v>698813.9011549525</v>
       </c>
       <c r="R2" t="n">
-        <v>6365005.190648267</v>
+        <v>6364977.748399592</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,7 +767,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +777,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -781,22 +797,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109532679</v>
+        <v>72117437</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>42760</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +825,58 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>101242</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>Hejde, transekt 1, Gtl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>699135.4689690105</v>
+        <v>698876.0359369776</v>
       </c>
       <c r="R3" t="n">
-        <v>6365006.373185245</v>
+        <v>6364857.130456802</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,7 +900,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2018-06-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -874,7 +910,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2018-06-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,28 +924,33 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109532804</v>
+        <v>79993003</v>
       </c>
       <c r="B4" t="n">
-        <v>106964</v>
+        <v>42760</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,38 +963,54 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220299</v>
+        <v>101242</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Dårgräsfjäril</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Lopinga achine</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(Scopoli, 1763)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kohagen, Gtl</t>
+          <t>4. Forse Skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>699143.7701557426</v>
+        <v>698850.760269118</v>
       </c>
       <c r="R4" t="n">
-        <v>6365080.206298253</v>
+        <v>6365131.796981678</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,7 +1034,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -987,7 +1044,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1001,25 +1058,30 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Arne Pettersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Arne Pettersson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68570274</v>
+        <v>79992994</v>
       </c>
       <c r="B5" t="n">
         <v>42760</v>
@@ -1054,7 +1116,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1072,14 +1134,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>4. Forse Skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>698813.9011549525</v>
+        <v>698868.8699557008</v>
       </c>
       <c r="R5" t="n">
-        <v>6364977.748399592</v>
+        <v>6365193.146991285</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,7 +1168,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1130,6 +1192,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1152,7 +1215,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72117437</v>
+        <v>88792599</v>
       </c>
       <c r="B6" t="n">
         <v>42760</v>
@@ -1187,14 +1250,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1205,17 +1264,17 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hejde, transekt 1, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>698876.0359369776</v>
+        <v>698833.1261965743</v>
       </c>
       <c r="R6" t="n">
-        <v>6364857.130456802</v>
+        <v>6365082.887177548</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1239,7 +1298,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-06-28</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1249,7 +1308,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-06-28</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1286,7 +1345,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79993003</v>
+        <v>88787904</v>
       </c>
       <c r="B7" t="n">
         <v>42760</v>
@@ -1321,14 +1380,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1339,17 +1394,17 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4. Forse Skogsbilväg, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698850.760269118</v>
+        <v>698807.8333967249</v>
       </c>
       <c r="R7" t="n">
-        <v>6365131.796981678</v>
+        <v>6364980.152611679</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1373,7 +1428,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1383,7 +1438,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1420,7 +1475,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79992994</v>
+        <v>88792597</v>
       </c>
       <c r="B8" t="n">
         <v>42760</v>
@@ -1455,14 +1510,10 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>imago/adult</t>
@@ -1473,17 +1524,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4. Forse Skogsbilväg, Gtl</t>
+          <t>4. Forse skogsbilväg, Gtl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698868.8699557008</v>
+        <v>698866.2050119784</v>
       </c>
       <c r="R8" t="n">
-        <v>6365193.146991285</v>
+        <v>6365159.003978945</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1507,7 +1558,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1517,7 +1568,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1554,7 +1605,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88792599</v>
+        <v>88792602</v>
       </c>
       <c r="B9" t="n">
         <v>42760</v>
@@ -1589,7 +1640,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1607,13 +1658,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698833.1261965743</v>
+        <v>698814.2091739047</v>
       </c>
       <c r="R9" t="n">
-        <v>6365082.887177548</v>
+        <v>6365004.759195536</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1684,7 +1735,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88787904</v>
+        <v>88787859</v>
       </c>
       <c r="B10" t="n">
         <v>42760</v>
@@ -1719,7 +1770,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1737,10 +1788,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>698807.8333967249</v>
+        <v>698857.0043573412</v>
       </c>
       <c r="R10" t="n">
-        <v>6364980.152611679</v>
+        <v>6365159.09584777</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1814,7 +1865,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88792597</v>
+        <v>88792604</v>
       </c>
       <c r="B11" t="n">
         <v>42760</v>
@@ -1849,7 +1900,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1867,10 +1918,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>698866.2050119784</v>
+        <v>698804.9513779663</v>
       </c>
       <c r="R11" t="n">
-        <v>6365159.003978945</v>
+        <v>6364983.791739124</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1944,7 +1995,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88792602</v>
+        <v>88787882</v>
       </c>
       <c r="B12" t="n">
         <v>42760</v>
@@ -1979,7 +2030,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1997,13 +2048,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>698814.2091739047</v>
+        <v>698827.1068079674</v>
       </c>
       <c r="R12" t="n">
-        <v>6365004.759195536</v>
+        <v>6365062.077703878</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2074,7 +2125,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88787859</v>
+        <v>95564901</v>
       </c>
       <c r="B13" t="n">
         <v>42760</v>
@@ -2109,7 +2160,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2127,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>698857.0043573412</v>
+        <v>698851.2847993015</v>
       </c>
       <c r="R13" t="n">
-        <v>6365159.09584777</v>
+        <v>6365121.024543757</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2157,7 +2208,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2167,7 +2218,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2204,7 +2255,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88792604</v>
+        <v>95564917</v>
       </c>
       <c r="B14" t="n">
         <v>42760</v>
@@ -2239,7 +2290,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2257,13 +2308,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>698804.9513779663</v>
+        <v>698818.3736643163</v>
       </c>
       <c r="R14" t="n">
-        <v>6364983.791739124</v>
+        <v>6365030.337822604</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2287,7 +2338,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2297,7 +2348,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2334,7 +2385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88787882</v>
+        <v>95564923</v>
       </c>
       <c r="B15" t="n">
         <v>42760</v>
@@ -2369,7 +2420,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2387,10 +2438,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>698827.1068079674</v>
+        <v>698806.4918026885</v>
       </c>
       <c r="R15" t="n">
-        <v>6365062.077703878</v>
+        <v>6364985.486474841</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2417,7 +2468,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2427,7 +2478,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2021-06-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2464,7 +2515,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95564901</v>
+        <v>103831818</v>
       </c>
       <c r="B16" t="n">
         <v>42760</v>
@@ -2517,13 +2568,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>698851.2847993015</v>
+        <v>698859.0278939214</v>
       </c>
       <c r="R16" t="n">
-        <v>6365121.024543757</v>
+        <v>6365139.758125425</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2547,7 +2598,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2557,7 +2608,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2594,7 +2645,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95564917</v>
+        <v>103831888</v>
       </c>
       <c r="B17" t="n">
         <v>42760</v>
@@ -2629,7 +2680,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2647,13 +2698,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>698818.3736643163</v>
+        <v>698839.7224652478</v>
       </c>
       <c r="R17" t="n">
-        <v>6365030.337822604</v>
+        <v>6365091.846795091</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2677,7 +2728,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2687,7 +2738,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2724,7 +2775,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95564923</v>
+        <v>103831911</v>
       </c>
       <c r="B18" t="n">
         <v>42760</v>
@@ -2759,7 +2810,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2777,13 +2828,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>698806.4918026885</v>
+        <v>698817.1851109561</v>
       </c>
       <c r="R18" t="n">
-        <v>6364985.486474841</v>
+        <v>6365010.303207053</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2807,7 +2858,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2817,7 +2868,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2854,7 +2905,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103831818</v>
+        <v>103831813</v>
       </c>
       <c r="B19" t="n">
         <v>42760</v>
@@ -2889,7 +2940,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2907,10 +2958,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>698859.0278939214</v>
+        <v>698862.641120194</v>
       </c>
       <c r="R19" t="n">
-        <v>6365139.758125425</v>
+        <v>6365176.646924374</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2984,7 +3035,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>103831888</v>
+        <v>103831777</v>
       </c>
       <c r="B20" t="n">
         <v>42760</v>
@@ -3019,7 +3070,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -3037,10 +3088,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>698839.7224652478</v>
+        <v>698874.2292442647</v>
       </c>
       <c r="R20" t="n">
-        <v>6365091.846795091</v>
+        <v>6365205.285552061</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3114,7 +3165,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103831911</v>
+        <v>103831824</v>
       </c>
       <c r="B21" t="n">
         <v>42760</v>
@@ -3149,7 +3200,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -3167,10 +3218,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>698817.1851109561</v>
+        <v>698850.0218603283</v>
       </c>
       <c r="R21" t="n">
-        <v>6365010.303207053</v>
+        <v>6365124.74234467</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3244,10 +3295,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103831813</v>
+        <v>109532664</v>
       </c>
       <c r="B22" t="n">
-        <v>42760</v>
+        <v>96361</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3256,54 +3307,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>101242</v>
+        <v>219864</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Sankt pers nycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Orchis mascula</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>698862.641120194</v>
+        <v>699133.3627236265</v>
       </c>
       <c r="R22" t="n">
-        <v>6365176.646924374</v>
+        <v>6365005.190648267</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3327,7 +3366,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3337,7 +3376,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3351,33 +3390,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103831777</v>
+        <v>109532679</v>
       </c>
       <c r="B23" t="n">
-        <v>42760</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3386,54 +3420,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101242</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>698874.2292442647</v>
+        <v>699135.4689690105</v>
       </c>
       <c r="R23" t="n">
-        <v>6365205.285552061</v>
+        <v>6365006.373185245</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3457,7 +3479,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3467,7 +3489,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3481,33 +3503,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103831824</v>
+        <v>109532804</v>
       </c>
       <c r="B24" t="n">
-        <v>42760</v>
+        <v>106964</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3520,50 +3537,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>101242</v>
+        <v>220299</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dårgräsfjäril</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lopinga achine</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scopoli, 1763)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>4. Forse skogsbilväg, Gtl</t>
+          <t>Kohagen, Gtl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>698850.0218603283</v>
+        <v>699143.7701557426</v>
       </c>
       <c r="R24" t="n">
-        <v>6365124.74234467</v>
+        <v>6365080.206298253</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3587,7 +3592,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3597,7 +3602,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3611,26 +3616,21 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Arne Pettersson</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
